--- a/meta/en/7-1-2.xlsx
+++ b/meta/en/7-1-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>7.1.2. Proportion of population with primary reliance on clean fuels and technology</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proportion of population with primary reliance on clean fuels and technology is calculated as the number of people using clean fuels and technologies for cooking, heating and lighting divided by total population reporting that any cooking, heating or lighting, expressed as percentage. </t>
   </si>
   <si>
@@ -150,18 +135,41 @@
   </si>
   <si>
     <t>KR National SDG Reporting Platform:  https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,26 +236,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -558,7 +570,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +590,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -609,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -617,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +697,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -707,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
